--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_1320TB_TG102LE-4G_A7670E(GD).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_1320TB_TG102LE-4G_A7670E(GD).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" firstSheet="2" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" firstSheet="16" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,18 @@
     <sheet name="26" sheetId="26" r:id="rId26"/>
     <sheet name="27" sheetId="27" r:id="rId27"/>
     <sheet name="28" sheetId="28" r:id="rId28"/>
+    <sheet name="29" sheetId="29" r:id="rId29"/>
+    <sheet name="30" sheetId="30" r:id="rId30"/>
+    <sheet name="31" sheetId="31" r:id="rId31"/>
+    <sheet name="32" sheetId="32" r:id="rId32"/>
+    <sheet name="33" sheetId="33" r:id="rId33"/>
+    <sheet name="34" sheetId="34" r:id="rId34"/>
+    <sheet name="35" sheetId="35" r:id="rId35"/>
+    <sheet name="36" sheetId="36" r:id="rId36"/>
+    <sheet name="37" sheetId="37" r:id="rId37"/>
+    <sheet name="38" sheetId="38" r:id="rId38"/>
+    <sheet name="39" sheetId="39" r:id="rId39"/>
+    <sheet name="40" sheetId="40" r:id="rId40"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -5496,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,6 +5619,156 @@
         <v>861881054169561</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054161410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051222554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051150987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881052589489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881053432853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054168118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881052576239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881052581064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051155465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054161741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881054172052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881053428828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051159764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051226845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051150573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051150532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051159376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054171179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054160727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051159624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881054169108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054166591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881054168175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881054169975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054164513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051159806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054165593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051223941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881054161535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054172128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5615,17 +5777,537 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051228247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054163952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054166278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054168076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051204750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881052585719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054165866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054167847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054164414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881054164380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881054170346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881053427853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051228320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881054171641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054160883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054164695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054162434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051226324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054163671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881054168951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051227397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051225334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051222422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881053434511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051209155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051152736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051160408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051158485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051159525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051152637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051159715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051160416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881053430527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881053434693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051160457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051160465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881052583367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054162822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051223644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053427796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051226829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881053434404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051223818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051223883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051208231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051203786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054163929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054166369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881054166500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051203778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051150623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051150813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051150730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051206714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051229195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051158568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051226365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051150821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051225938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051158196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051159558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051226126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051151001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051225862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051158915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051227249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051151894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051224667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051221184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051152371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051209148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051226225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051160895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051158204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051219592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054162657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054171252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881053429552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051227868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051224857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051155721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051225854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051160671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881053435658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051205773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881053428786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051226118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881053432689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881053431442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053431392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051220335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051227546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051227538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051152207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051160812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051153890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051159350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051159897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881053434438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051159384</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5892,6 +6574,2521 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>862205051227405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881052582419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054166013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054164323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054167102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051204081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054169751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051222315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881052578185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051204370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881054170163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051203596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881054169207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881054169702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881054169678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051204222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054161683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054172185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881054171997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054161048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051223362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051152561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054169587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051204032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051203307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054168134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054162780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054168902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881054172326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881054170254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051219550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881054166831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051155135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881052589513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054170080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051203570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054170114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054170155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051207894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051208348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051205914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881054171765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054170130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051208686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881054172359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054167870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051156075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054171872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051208108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881054172193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051203299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054172284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051222240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051224865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051160580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051159889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053434453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051209809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051157925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051224410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051153320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052589315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881054165213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051203612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881052578557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881052585644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051153189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051205104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051227892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051223305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051153197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051158303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881053433091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051151118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051160846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051159970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051160754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051158212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051160911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051225904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051159020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051226571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051158378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051158063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054164455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051159293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051204347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051150938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051225706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051223537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051227918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051227264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051219477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051208793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051159954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051160192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051158188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051225771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051159186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051219659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051227256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881052581023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051159129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051225599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054169371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051153098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051201285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051158840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881053428919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881053434727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881053427754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051228759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051223719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881053434735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051158253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881053432663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051151886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051209007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051225649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051226647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051158998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051228031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054171609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054170734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881054161717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051226399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054170478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054170221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051201335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051151100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051201319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051226209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051159301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051151902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051226217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881053428760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051158220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051221275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051228155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054161766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053432671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051229013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054172318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051222505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881052581080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051158824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054169470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054166468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054167490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881054162814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054167938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054162475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054163838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054171211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054160982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881054166559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053430469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054172110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054161675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054171898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881054171690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053427614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881053427812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051150847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881054161691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054171187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054170445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051219964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051204685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054172219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051204198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051228668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051228296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051228916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881054171245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054161816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054160867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054171161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051206326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051227272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051229120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051201509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051155093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881052592590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051204230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051204792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051206482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051156414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051151951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881053434974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051224972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051207795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051228239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051152108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051152165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053435021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051151233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051151829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051227587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051203281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051227702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054166948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051159913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054160776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051228387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051159616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051204164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051208512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881052576734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881053429651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051160473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051206979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051158964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051207035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051205302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051160051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051204065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051153270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051224485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051206110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881054172276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051205872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881052578854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051204784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051150656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051160093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054172078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051152157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051152215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051228569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051208777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051153643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051204875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051203968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881052578219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051155812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054169223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051224899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051225458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051207472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051207480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051158816</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051219840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881053431434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051205070</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053427358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881053432572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051158766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881053431319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051152116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051227645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051152074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051228346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051151977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051207118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051204354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053431343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051220533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054162020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054161626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881052590685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881054171203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881054160743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051206722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051207134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051225763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051151878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051224774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051202960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051158873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051228015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881052574382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051157875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054160842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051152504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051223263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051153486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054168936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051155762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881052578383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054160784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881053432812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881052576437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881052577880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054160529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051219485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054167961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051226654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051153403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881052590818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051158105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051158089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051220004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051225185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051223909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051202150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881053428307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051219568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054170429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881053429602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881053431376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054168142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051152389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051228957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054160917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881053429784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054164497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054161600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051202028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054169355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881054166443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051228767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051208389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051155341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051208736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051206664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051207332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054160610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881054164430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881053432770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051153429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051224782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881053429628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881053428646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881052578441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051160119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051202184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051158493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051204891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881052585875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051152272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881054162632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881054172383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881053427499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051152231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881054168654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051227959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054169819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051219626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051219642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054166898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881053433570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051222711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881053436821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051153478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054170064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051203034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054166963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054162350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051203992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881053433216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051208918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054158184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881052577864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051155176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881052590750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051223339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881053432903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051227793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051225441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881053434412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052585925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051222562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051201061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881052578458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051227231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051227744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051203380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051204016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054162335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051225391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054171781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051220426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051224212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051153122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051153510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051224238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051158683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051152454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051228932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051152173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051206938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051205674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051207589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051208447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051222307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054169835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051220715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051151845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054170296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051159491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051229187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051205294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051223099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051228437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051204834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881053435641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051152405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051152058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051208769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054169892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051226050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051204131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881052576510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051224048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881054169645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051155705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051219816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881053428612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054170957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051220616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053427838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051219618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051203455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051207530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051202937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881053435591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051150474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051201210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051221465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051226522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051221333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051202812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051224386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051205849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054170965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051207043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051158881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051219493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881053429610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881053432556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881053432796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051206037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881053434677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051205815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881053428513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051201426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054169785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051223446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054169694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053427226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051201152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051224113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881053441409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051226621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054172441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054169710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051226928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051221234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881053429800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054169637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881052580967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881053431418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051207456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051225045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881054170916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054172037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881053432739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051207555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051155374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051221812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053432507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051221408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051204651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881053428356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051219576</v>
       </c>
     </row>
   </sheetData>
@@ -6169,6 +9366,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D35:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
